--- a/Code/Results/Cases/Case_4_77/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_77/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.40710330176292</v>
+        <v>12.40311104990069</v>
       </c>
       <c r="C2">
-        <v>7.750565534449305</v>
+        <v>10.34457366267983</v>
       </c>
       <c r="D2">
-        <v>7.070801612630322</v>
+        <v>5.997725142654222</v>
       </c>
       <c r="E2">
-        <v>8.43968440347774</v>
+        <v>12.53742077145915</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>26.14174829493366</v>
+        <v>34.50002494905634</v>
       </c>
       <c r="H2">
-        <v>9.861124075593683</v>
+        <v>15.78068430717363</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.66136591221592</v>
+        <v>8.781178598514009</v>
       </c>
       <c r="L2">
-        <v>6.729319098965822</v>
+        <v>9.568679151578802</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.51425613980118</v>
+        <v>24.77787077309823</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.43894110634972</v>
+        <v>12.13252846446118</v>
       </c>
       <c r="C3">
-        <v>7.801854292767916</v>
+        <v>10.36116578130155</v>
       </c>
       <c r="D3">
-        <v>6.583822949564279</v>
+        <v>5.88102639286096</v>
       </c>
       <c r="E3">
-        <v>8.325093167967555</v>
+        <v>12.55246835435037</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>25.84028165677545</v>
+        <v>34.57191597252015</v>
       </c>
       <c r="H3">
-        <v>9.920014183959269</v>
+        <v>15.8295670183605</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.03584601013402</v>
+        <v>8.58070110859977</v>
       </c>
       <c r="L3">
-        <v>6.522908258171101</v>
+        <v>9.553648080333989</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.52118103696373</v>
+        <v>24.85442283197309</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.80940365733263</v>
+        <v>11.96544408291313</v>
       </c>
       <c r="C4">
-        <v>7.834882617995402</v>
+        <v>10.37206965038587</v>
       </c>
       <c r="D4">
-        <v>6.275137111386419</v>
+        <v>5.80993606952778</v>
       </c>
       <c r="E4">
-        <v>8.259508845128208</v>
+        <v>12.56408971423606</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>25.68227086980993</v>
+        <v>34.6261391637868</v>
       </c>
       <c r="H4">
-        <v>9.962327278528187</v>
+        <v>15.86206819510987</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.63289788773526</v>
+        <v>8.456366744499906</v>
       </c>
       <c r="L4">
-        <v>6.396260799985459</v>
+        <v>9.546044627345621</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.53924522655235</v>
+        <v>24.90653032640696</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.54398860358452</v>
+        <v>11.89721607905655</v>
       </c>
       <c r="C5">
-        <v>7.848727524282386</v>
+        <v>10.37669366622602</v>
       </c>
       <c r="D5">
-        <v>6.162404435375497</v>
+        <v>5.781152508491803</v>
       </c>
       <c r="E5">
-        <v>8.233985688688724</v>
+        <v>12.56942438909771</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>25.62452859230997</v>
+        <v>34.65076190972064</v>
       </c>
       <c r="H5">
-        <v>9.981063962468903</v>
+        <v>15.8759379212868</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.46401785609241</v>
+        <v>8.405458502425397</v>
       </c>
       <c r="L5">
-        <v>6.344744957382188</v>
+        <v>9.54335747397489</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.54994781084876</v>
+        <v>24.92904564855782</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.4993792100591</v>
+        <v>11.88588135370429</v>
       </c>
       <c r="C6">
-        <v>7.851049728713176</v>
+        <v>10.3774724030104</v>
       </c>
       <c r="D6">
-        <v>6.143532785415585</v>
+        <v>5.776385587079695</v>
       </c>
       <c r="E6">
-        <v>8.229820246655347</v>
+        <v>12.57034637180988</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>25.61533685080217</v>
+        <v>34.65500280714215</v>
       </c>
       <c r="H6">
-        <v>9.984263861328994</v>
+        <v>15.87827873707642</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.43569552726014</v>
+        <v>8.396992800112816</v>
       </c>
       <c r="L6">
-        <v>6.336198633845926</v>
+        <v>9.542936184925194</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.55192290982636</v>
+        <v>24.93286160344179</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.8058601732512</v>
+        <v>11.96452437032321</v>
       </c>
       <c r="C7">
-        <v>7.835067774932962</v>
+        <v>10.37213127957435</v>
       </c>
       <c r="D7">
-        <v>6.273627051447662</v>
+        <v>5.809547070588571</v>
       </c>
       <c r="E7">
-        <v>8.259159759487479</v>
+        <v>12.56415923497182</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>25.6814654510786</v>
+        <v>34.62646101802039</v>
       </c>
       <c r="H7">
-        <v>9.962573989360285</v>
+        <v>15.86225271574305</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.63063913524752</v>
+        <v>8.455681058097992</v>
       </c>
       <c r="L7">
-        <v>6.395565561288756</v>
+        <v>9.546006718925176</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.53937621111178</v>
+        <v>24.90682879207722</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.08053064235305</v>
+        <v>12.31006823114769</v>
       </c>
       <c r="C8">
-        <v>7.767930357847728</v>
+        <v>10.35014626648762</v>
       </c>
       <c r="D8">
-        <v>6.906396125571064</v>
+        <v>5.957397202134868</v>
       </c>
       <c r="E8">
-        <v>8.399184543378288</v>
+        <v>12.5421147517408</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>26.03208834104347</v>
+        <v>34.52271549625559</v>
       </c>
       <c r="H8">
-        <v>9.880119026591698</v>
+        <v>15.79702280747877</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.44964150890187</v>
+        <v>8.712353053878559</v>
       </c>
       <c r="L8">
-        <v>6.658171635043557</v>
+        <v>9.563160621720712</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.51369788938054</v>
+        <v>24.80320512767066</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.30419665293214</v>
+        <v>12.97604591311931</v>
       </c>
       <c r="C9">
-        <v>7.648516012759317</v>
+        <v>10.31269479128342</v>
       </c>
       <c r="D9">
-        <v>8.02880140625399</v>
+        <v>6.249866277704904</v>
       </c>
       <c r="E9">
-        <v>8.711428978867666</v>
+        <v>12.51778614964307</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>26.94076624748592</v>
+        <v>34.39961566399957</v>
       </c>
       <c r="H9">
-        <v>9.769778043017199</v>
+        <v>15.68884653378466</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.90369138967352</v>
+        <v>9.202882808536298</v>
       </c>
       <c r="L9">
-        <v>7.170947724937031</v>
+        <v>9.609576502324007</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.57879676125275</v>
+        <v>24.64060309380287</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.77311053475533</v>
+        <v>13.45300941767567</v>
       </c>
       <c r="C10">
-        <v>7.5683275690038</v>
+        <v>10.28860048138828</v>
       </c>
       <c r="D10">
-        <v>8.774181046860859</v>
+        <v>6.463773808295074</v>
       </c>
       <c r="E10">
-        <v>8.963335630257847</v>
+        <v>12.51142578124281</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>27.74998704344053</v>
+        <v>34.35856799065531</v>
       </c>
       <c r="H10">
-        <v>9.723645476812777</v>
+        <v>15.62141127844662</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.87737792972063</v>
+        <v>9.551747594218989</v>
       </c>
       <c r="L10">
-        <v>7.542849948641781</v>
+        <v>9.651288066867053</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.70492481149533</v>
+        <v>24.54602931128908</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.40633510876234</v>
+        <v>13.66630105430167</v>
       </c>
       <c r="C11">
-        <v>7.533510143824931</v>
+        <v>10.27837600439951</v>
       </c>
       <c r="D11">
-        <v>9.096513495903938</v>
+        <v>6.560372402325252</v>
       </c>
       <c r="E11">
-        <v>9.082690883827309</v>
+        <v>12.51102700117554</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>28.14990871317761</v>
+        <v>34.35068458843995</v>
       </c>
       <c r="H11">
-        <v>9.711076239064584</v>
+        <v>15.59334975016935</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.2996294013439</v>
+        <v>9.707240261938058</v>
       </c>
       <c r="L11">
-        <v>7.710370262816451</v>
+        <v>9.671872275580208</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.78095973265159</v>
+        <v>24.50843686152782</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.64115281109221</v>
+        <v>13.74646217684199</v>
       </c>
       <c r="C12">
-        <v>7.520567079708989</v>
+        <v>10.27460963328301</v>
       </c>
       <c r="D12">
-        <v>9.216202178915383</v>
+        <v>6.596810477016862</v>
       </c>
       <c r="E12">
-        <v>9.128559949246478</v>
+        <v>12.51123390267959</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>28.3059813411507</v>
+        <v>34.34925411717037</v>
       </c>
       <c r="H12">
-        <v>9.707599028177885</v>
+        <v>15.58309980610407</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.45654915371697</v>
+        <v>9.765606109269859</v>
       </c>
       <c r="L12">
-        <v>7.773524124783379</v>
+        <v>9.679894247348498</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.81256709040878</v>
+        <v>24.49498437590276</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.5908006962844</v>
+        <v>13.72922626701285</v>
       </c>
       <c r="C13">
-        <v>7.523343809930752</v>
+        <v>10.27541610722201</v>
       </c>
       <c r="D13">
-        <v>9.190529967055673</v>
+        <v>6.588969798668</v>
       </c>
       <c r="E13">
-        <v>9.118651549812865</v>
+        <v>12.5111734395106</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>28.27216156162981</v>
+        <v>34.34949300562804</v>
       </c>
       <c r="H13">
-        <v>9.708289690664579</v>
+        <v>15.58529057212226</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.4228860797741</v>
+        <v>9.753059748002384</v>
       </c>
       <c r="L13">
-        <v>7.759935999178556</v>
+        <v>9.678156538816028</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.80563264024121</v>
+        <v>24.49784675385444</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.4257529656477</v>
+        <v>13.67290856888173</v>
       </c>
       <c r="C14">
-        <v>7.532440452298444</v>
+        <v>10.27806403258197</v>
       </c>
       <c r="D14">
-        <v>9.106407674545956</v>
+        <v>6.563373244949503</v>
       </c>
       <c r="E14">
-        <v>9.086451168642721</v>
+        <v>12.51103685534408</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>28.16265580606755</v>
+        <v>34.35053572781788</v>
       </c>
       <c r="H14">
-        <v>9.710764040819482</v>
+        <v>15.5924989368541</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.31259895218744</v>
+        <v>9.712052691868244</v>
       </c>
       <c r="L14">
-        <v>7.715571856919466</v>
+        <v>9.672527720300227</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.7835029383495</v>
+        <v>24.50731441378681</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.3240109800556</v>
+        <v>13.63833096621232</v>
       </c>
       <c r="C15">
-        <v>7.538043951717997</v>
+        <v>10.27969967867598</v>
       </c>
       <c r="D15">
-        <v>9.054572583700146</v>
+        <v>6.547675017706851</v>
       </c>
       <c r="E15">
-        <v>9.066814614890042</v>
+        <v>12.51099977683875</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>28.09618494739142</v>
+        <v>34.35137698245265</v>
       </c>
       <c r="H15">
-        <v>9.712448857826796</v>
+        <v>15.59696328868477</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.24465715418073</v>
+        <v>9.686865956680561</v>
       </c>
       <c r="L15">
-        <v>7.688359569670106</v>
+        <v>9.669109361184072</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.77031824889062</v>
+        <v>24.51321565556878</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.73102887092301</v>
+        <v>13.43898940135637</v>
       </c>
       <c r="C16">
-        <v>7.570636611925849</v>
+        <v>10.28928345035972</v>
       </c>
       <c r="D16">
-        <v>8.752781987831384</v>
+        <v>6.457443148283537</v>
       </c>
       <c r="E16">
-        <v>8.955630198072241</v>
+        <v>12.51150197534791</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>27.72449642659989</v>
+        <v>34.35930061102295</v>
       </c>
       <c r="H16">
-        <v>9.724642379453174</v>
+        <v>15.62329781365024</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.84936611128395</v>
+        <v>9.541516475780773</v>
       </c>
       <c r="L16">
-        <v>7.531864810784905</v>
+        <v>9.649974868275338</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.70034252005303</v>
+        <v>24.548595514519</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.35833415490017</v>
+        <v>13.31569939614084</v>
       </c>
       <c r="C17">
-        <v>7.591058321430501</v>
+        <v>10.29535101324365</v>
       </c>
       <c r="D17">
-        <v>8.56337993333022</v>
+        <v>6.401878262425812</v>
       </c>
       <c r="E17">
-        <v>8.888632585045114</v>
+        <v>12.51244846861513</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>27.50466861465392</v>
+        <v>34.36692767582377</v>
       </c>
       <c r="H17">
-        <v>9.734328922964028</v>
+        <v>15.64012319830991</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.60156516732372</v>
+        <v>9.451487570685382</v>
       </c>
       <c r="L17">
-        <v>7.435401996873304</v>
+        <v>9.638645742289684</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.66228811638654</v>
+        <v>24.57169217273414</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.14067265501706</v>
+        <v>13.24444407711929</v>
       </c>
       <c r="C18">
-        <v>7.602960475104413</v>
+        <v>10.29891023039499</v>
       </c>
       <c r="D18">
-        <v>8.452862569723292</v>
+        <v>6.369854322233357</v>
       </c>
       <c r="E18">
-        <v>8.850546318895606</v>
+        <v>12.51322772923622</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>27.38122048169527</v>
+        <v>34.37232999293192</v>
       </c>
       <c r="H18">
-        <v>9.740688099791663</v>
+        <v>15.65004684344079</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.45708942902537</v>
+        <v>9.399406408155892</v>
       </c>
       <c r="L18">
-        <v>7.379765105547589</v>
+        <v>9.632281285139033</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.64214878872016</v>
+        <v>24.58548770129541</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.0664080590989</v>
+        <v>13.22026196036693</v>
       </c>
       <c r="C19">
-        <v>7.607017077719444</v>
+        <v>10.30012723867576</v>
       </c>
       <c r="D19">
-        <v>8.415171130338452</v>
+        <v>6.359001736823974</v>
       </c>
       <c r="E19">
-        <v>8.837728469917902</v>
+        <v>12.51353193276451</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>27.33993478764241</v>
+        <v>34.37433340450682</v>
       </c>
       <c r="H19">
-        <v>9.74297434687881</v>
+        <v>15.65344908284062</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.40783823915016</v>
+        <v>9.381723012671431</v>
       </c>
       <c r="L19">
-        <v>7.360902395746484</v>
+        <v>9.630152578917221</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.63562621876721</v>
+        <v>24.59024631604028</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.39834897153362</v>
+        <v>13.32885982602963</v>
       </c>
       <c r="C20">
-        <v>7.588868218532349</v>
+        <v>10.2946979401333</v>
       </c>
       <c r="D20">
-        <v>8.583705196327577</v>
+        <v>6.40780020840907</v>
       </c>
       <c r="E20">
-        <v>8.895718220184031</v>
+        <v>12.51232341060604</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>27.5277596413532</v>
+        <v>34.36601064043695</v>
       </c>
       <c r="H20">
-        <v>9.7332157322932</v>
+        <v>15.63830663177591</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.62814557914253</v>
+        <v>9.461102646628261</v>
       </c>
       <c r="L20">
-        <v>7.445686907678378</v>
+        <v>9.639836070847316</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.66615714122348</v>
+        <v>24.56918059719255</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.47436589148287</v>
+        <v>13.68946753511942</v>
       </c>
       <c r="C21">
-        <v>7.529761968904228</v>
+        <v>10.27728341522763</v>
       </c>
       <c r="D21">
-        <v>9.131180500897088</v>
+        <v>6.570895725574923</v>
       </c>
       <c r="E21">
-        <v>9.095891070367895</v>
+        <v>12.51106726723746</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>28.19469422193153</v>
+        <v>34.35018723821455</v>
       </c>
       <c r="H21">
-        <v>9.710001869216045</v>
+        <v>15.5903714490925</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.3450737559923</v>
+        <v>9.72411187306832</v>
       </c>
       <c r="L21">
-        <v>7.728610662488745</v>
+        <v>9.674174910347702</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.78992554862617</v>
+        <v>24.50451226660422</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.14866194259119</v>
+        <v>13.92157032430205</v>
       </c>
       <c r="C22">
-        <v>7.492542046311549</v>
+        <v>10.2665162636509</v>
       </c>
       <c r="D22">
-        <v>9.475181424263958</v>
+        <v>6.676645146087877</v>
       </c>
       <c r="E22">
-        <v>9.230625730475007</v>
+        <v>12.51233196933639</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>28.65758582724984</v>
+        <v>34.34890892505648</v>
       </c>
       <c r="H22">
-        <v>9.702340993870701</v>
+        <v>15.56123681105617</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.79627538720491</v>
+        <v>9.892974394606169</v>
       </c>
       <c r="L22">
-        <v>7.911855743169969</v>
+        <v>9.69793934581257</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.88727968405201</v>
+        <v>24.46681236725093</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.79140503658396</v>
+        <v>13.79804432278857</v>
       </c>
       <c r="C23">
-        <v>7.512277050583319</v>
+        <v>10.27220683549483</v>
       </c>
       <c r="D23">
-        <v>9.292832575849493</v>
+        <v>6.620294391253536</v>
       </c>
       <c r="E23">
-        <v>9.158361729777763</v>
+        <v>12.511466453277</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>28.40804442247653</v>
+        <v>34.34876114462706</v>
       </c>
       <c r="H23">
-        <v>9.70571796590832</v>
+        <v>15.5765856886858</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.55704738044559</v>
+        <v>9.8031434391415</v>
       </c>
       <c r="L23">
-        <v>7.814219216408056</v>
+        <v>9.685136325510525</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.83377082666971</v>
+        <v>24.48651516950767</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.38026885015127</v>
+        <v>13.32291115537213</v>
       </c>
       <c r="C24">
-        <v>7.589857861402209</v>
+        <v>10.29499297362163</v>
       </c>
       <c r="D24">
-        <v>8.574521217260239</v>
+        <v>6.405123139498799</v>
       </c>
       <c r="E24">
-        <v>8.892513459357565</v>
+        <v>12.5123792169384</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>27.51731105453241</v>
+        <v>34.36642206319434</v>
       </c>
       <c r="H24">
-        <v>9.73371654976339</v>
+        <v>15.63912712119905</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.61613484052135</v>
+        <v>9.456756670638157</v>
       </c>
       <c r="L24">
-        <v>7.441037654070744</v>
+        <v>9.639297459470152</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.66440254956837</v>
+        <v>24.57031447036749</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.7318318087784</v>
+        <v>12.79768546617054</v>
       </c>
       <c r="C25">
-        <v>7.679502790165514</v>
+        <v>10.32222345838668</v>
       </c>
       <c r="D25">
-        <v>7.739226452686691</v>
+        <v>6.170739254369307</v>
       </c>
       <c r="E25">
-        <v>8.622966449064103</v>
+        <v>12.52234439457123</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>26.6704857056329</v>
+        <v>34.42426880080818</v>
       </c>
       <c r="H25">
-        <v>9.793765475408723</v>
+        <v>15.7159969819904</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.52685534650285</v>
+        <v>9.071950965901671</v>
       </c>
       <c r="L25">
-        <v>7.03284629338287</v>
+        <v>9.595669314307912</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.54800178845489</v>
+        <v>24.68022974404089</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_77/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_77/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.40311104990069</v>
+        <v>14.40710330176294</v>
       </c>
       <c r="C2">
-        <v>10.34457366267983</v>
+        <v>7.750565534449297</v>
       </c>
       <c r="D2">
-        <v>5.997725142654222</v>
+        <v>7.070801612630377</v>
       </c>
       <c r="E2">
-        <v>12.53742077145915</v>
+        <v>8.4396844034778</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>34.50002494905634</v>
+        <v>26.14174829493362</v>
       </c>
       <c r="H2">
-        <v>15.78068430717363</v>
+        <v>9.861124075593576</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.781178598514009</v>
+        <v>11.66136591221595</v>
       </c>
       <c r="L2">
-        <v>9.568679151578802</v>
+        <v>6.729319098965858</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>24.77787077309823</v>
+        <v>16.51425613980112</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.13252846446118</v>
+        <v>13.43894110634966</v>
       </c>
       <c r="C3">
-        <v>10.36116578130155</v>
+        <v>7.801854292767779</v>
       </c>
       <c r="D3">
-        <v>5.88102639286096</v>
+        <v>6.583822949564401</v>
       </c>
       <c r="E3">
-        <v>12.55246835435037</v>
+        <v>8.325093167967511</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>34.57191597252015</v>
+        <v>25.84028165677567</v>
       </c>
       <c r="H3">
-        <v>15.8295670183605</v>
+        <v>9.920014183959387</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.58070110859977</v>
+        <v>11.03584601013395</v>
       </c>
       <c r="L3">
-        <v>9.553648080333989</v>
+        <v>6.522908258171118</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>24.85442283197309</v>
+        <v>16.52118103696388</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.96544408291313</v>
+        <v>12.8094036573326</v>
       </c>
       <c r="C4">
-        <v>10.37206965038587</v>
+        <v>7.83488261799553</v>
       </c>
       <c r="D4">
-        <v>5.80993606952778</v>
+        <v>6.275137111386433</v>
       </c>
       <c r="E4">
-        <v>12.56408971423606</v>
+        <v>8.259508845128144</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>34.6261391637868</v>
+        <v>25.6822708698101</v>
       </c>
       <c r="H4">
-        <v>15.86206819510987</v>
+        <v>9.96232727852831</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.456366744499906</v>
+        <v>10.63289788773523</v>
       </c>
       <c r="L4">
-        <v>9.546044627345621</v>
+        <v>6.396260799985429</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>24.90653032640696</v>
+        <v>16.53924522655254</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.89721607905655</v>
+        <v>12.54398860358451</v>
       </c>
       <c r="C5">
-        <v>10.37669366622602</v>
+        <v>7.848727524282517</v>
       </c>
       <c r="D5">
-        <v>5.781152508491803</v>
+        <v>6.162404435375506</v>
       </c>
       <c r="E5">
-        <v>12.56942438909771</v>
+        <v>8.233985688688826</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>34.65076190972064</v>
+        <v>25.62452859230975</v>
       </c>
       <c r="H5">
-        <v>15.8759379212868</v>
+        <v>9.981063962468832</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.405458502425397</v>
+        <v>10.46401785609241</v>
       </c>
       <c r="L5">
-        <v>9.54335747397489</v>
+        <v>6.344744957382188</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>24.92904564855782</v>
+        <v>16.5499478108487</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.88588135370429</v>
+        <v>12.49937921005915</v>
       </c>
       <c r="C6">
-        <v>10.3774724030104</v>
+        <v>7.851049728712906</v>
       </c>
       <c r="D6">
-        <v>5.776385587079695</v>
+        <v>6.143532785415629</v>
       </c>
       <c r="E6">
-        <v>12.57034637180988</v>
+        <v>8.22982024665531</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>34.65500280714215</v>
+        <v>25.61533685080244</v>
       </c>
       <c r="H6">
-        <v>15.87827873707642</v>
+        <v>9.98426386132908</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.396992800112816</v>
+        <v>10.43569552726017</v>
       </c>
       <c r="L6">
-        <v>9.542936184925194</v>
+        <v>6.336198633845933</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>24.93286160344179</v>
+        <v>16.55192290982648</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.96452437032321</v>
+        <v>12.80586017325117</v>
       </c>
       <c r="C7">
-        <v>10.37213127957435</v>
+        <v>7.835067774933102</v>
       </c>
       <c r="D7">
-        <v>5.809547070588571</v>
+        <v>6.273627051447675</v>
       </c>
       <c r="E7">
-        <v>12.56415923497182</v>
+        <v>8.259159759487376</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>34.62646101802039</v>
+        <v>25.68146545107873</v>
       </c>
       <c r="H7">
-        <v>15.86225271574305</v>
+        <v>9.962573989360271</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.455681058097992</v>
+        <v>10.63063913524752</v>
       </c>
       <c r="L7">
-        <v>9.546006718925176</v>
+        <v>6.395565561288706</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>24.90682879207722</v>
+        <v>16.53937621111177</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.31006823114769</v>
+        <v>14.08053064235314</v>
       </c>
       <c r="C8">
-        <v>10.35014626648762</v>
+        <v>7.76793035784759</v>
       </c>
       <c r="D8">
-        <v>5.957397202134868</v>
+        <v>6.906396125571038</v>
       </c>
       <c r="E8">
-        <v>12.5421147517408</v>
+        <v>8.399184543378247</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>34.52271549625559</v>
+        <v>26.03208834104333</v>
       </c>
       <c r="H8">
-        <v>15.79702280747877</v>
+        <v>9.880119026591583</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.712353053878559</v>
+        <v>11.44964150890196</v>
       </c>
       <c r="L8">
-        <v>9.563160621720712</v>
+        <v>6.658171635043562</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>24.80320512767066</v>
+        <v>16.51369788938045</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.97604591311931</v>
+        <v>16.3041966529321</v>
       </c>
       <c r="C9">
-        <v>10.31269479128342</v>
+        <v>7.648516012759324</v>
       </c>
       <c r="D9">
-        <v>6.249866277704904</v>
+        <v>8.028801406253962</v>
       </c>
       <c r="E9">
-        <v>12.51778614964307</v>
+        <v>8.711428978867621</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>34.39961566399957</v>
+        <v>26.94076624748588</v>
       </c>
       <c r="H9">
-        <v>15.68884653378466</v>
+        <v>9.769778043017213</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.202882808536298</v>
+        <v>12.90369138967346</v>
       </c>
       <c r="L9">
-        <v>9.609576502324007</v>
+        <v>7.17094772493701</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>24.64060309380287</v>
+        <v>16.57879676125272</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.45300941767567</v>
+        <v>17.77311053475526</v>
       </c>
       <c r="C10">
-        <v>10.28860048138828</v>
+        <v>7.56832756900392</v>
       </c>
       <c r="D10">
-        <v>6.463773808295074</v>
+        <v>8.774181046860893</v>
       </c>
       <c r="E10">
-        <v>12.51142578124281</v>
+        <v>8.963335630257887</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>34.35856799065531</v>
+        <v>27.74998704344059</v>
       </c>
       <c r="H10">
-        <v>15.62141127844662</v>
+        <v>9.723645476812822</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.551747594218989</v>
+        <v>13.87737792972062</v>
       </c>
       <c r="L10">
-        <v>9.651288066867053</v>
+        <v>7.542849948641759</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>24.54602931128908</v>
+        <v>16.70492481149545</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.66630105430167</v>
+        <v>18.40633510876232</v>
       </c>
       <c r="C11">
-        <v>10.27837600439951</v>
+        <v>7.533510143824806</v>
       </c>
       <c r="D11">
-        <v>6.560372402325252</v>
+        <v>9.096513495904139</v>
       </c>
       <c r="E11">
-        <v>12.51102700117554</v>
+        <v>9.082690883827352</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>34.35068458843995</v>
+        <v>28.1499087131775</v>
       </c>
       <c r="H11">
-        <v>15.59334975016935</v>
+        <v>9.711076239064534</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.707240261938058</v>
+        <v>14.29962940134388</v>
       </c>
       <c r="L11">
-        <v>9.671872275580208</v>
+        <v>7.710370262816446</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>24.50843686152782</v>
+        <v>16.78095973265149</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.74646217684199</v>
+        <v>18.64115281109225</v>
       </c>
       <c r="C12">
-        <v>10.27460963328301</v>
+        <v>7.520567079708715</v>
       </c>
       <c r="D12">
-        <v>6.596810477016862</v>
+        <v>9.21620217891545</v>
       </c>
       <c r="E12">
-        <v>12.51123390267959</v>
+        <v>9.128559949246492</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>34.34925411717037</v>
+        <v>28.30598134115069</v>
       </c>
       <c r="H12">
-        <v>15.58309980610407</v>
+        <v>9.707599028177794</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.765606109269859</v>
+        <v>14.45654915371698</v>
       </c>
       <c r="L12">
-        <v>9.679894247348498</v>
+        <v>7.773524124783411</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>24.49498437590276</v>
+        <v>16.81256709040874</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.72922626701285</v>
+        <v>18.59080069628437</v>
       </c>
       <c r="C13">
-        <v>10.27541610722201</v>
+        <v>7.523343809930877</v>
       </c>
       <c r="D13">
-        <v>6.588969798668</v>
+        <v>9.190529967055573</v>
       </c>
       <c r="E13">
-        <v>12.5111734395106</v>
+        <v>9.118651549812864</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>34.34949300562804</v>
+        <v>28.27216156163004</v>
       </c>
       <c r="H13">
-        <v>15.58529057212226</v>
+        <v>9.708289690664643</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.753059748002384</v>
+        <v>14.42288607977412</v>
       </c>
       <c r="L13">
-        <v>9.678156538816028</v>
+        <v>7.759935999178554</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>24.49784675385444</v>
+        <v>16.80563264024134</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.67290856888173</v>
+        <v>18.42575296564767</v>
       </c>
       <c r="C14">
-        <v>10.27806403258197</v>
+        <v>7.532440452298311</v>
       </c>
       <c r="D14">
-        <v>6.563373244949503</v>
+        <v>9.106407674545904</v>
       </c>
       <c r="E14">
-        <v>12.51103685534408</v>
+        <v>9.086451168642739</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>34.35053572781788</v>
+        <v>28.16265580606759</v>
       </c>
       <c r="H14">
-        <v>15.5924989368541</v>
+        <v>9.710764040819482</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.712052691868244</v>
+        <v>14.31259895218736</v>
       </c>
       <c r="L14">
-        <v>9.672527720300227</v>
+        <v>7.71557185691946</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>24.50731441378681</v>
+        <v>16.78350293834951</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.63833096621232</v>
+        <v>18.3240109800556</v>
       </c>
       <c r="C15">
-        <v>10.27969967867598</v>
+        <v>7.538043951718127</v>
       </c>
       <c r="D15">
-        <v>6.547675017706851</v>
+        <v>9.054572583700168</v>
       </c>
       <c r="E15">
-        <v>12.51099977683875</v>
+        <v>9.066814614889974</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>34.35137698245265</v>
+        <v>28.09618494739136</v>
       </c>
       <c r="H15">
-        <v>15.59696328868477</v>
+        <v>9.712448857826729</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.686865956680561</v>
+        <v>14.24465715418074</v>
       </c>
       <c r="L15">
-        <v>9.669109361184072</v>
+        <v>7.688359569670101</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>24.51321565556878</v>
+        <v>16.77031824889055</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.43898940135637</v>
+        <v>17.73102887092296</v>
       </c>
       <c r="C16">
-        <v>10.28928345035972</v>
+        <v>7.570636611925985</v>
       </c>
       <c r="D16">
-        <v>6.457443148283537</v>
+        <v>8.752781987831373</v>
       </c>
       <c r="E16">
-        <v>12.51150197534791</v>
+        <v>8.955630198072271</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>34.35930061102295</v>
+        <v>27.72449642659991</v>
       </c>
       <c r="H16">
-        <v>15.62329781365024</v>
+        <v>9.724642379453273</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.541516475780773</v>
+        <v>13.84936611128392</v>
       </c>
       <c r="L16">
-        <v>9.649974868275338</v>
+        <v>7.53186481078487</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>24.548595514519</v>
+        <v>16.70034252005313</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.31569939614084</v>
+        <v>17.35833415490014</v>
       </c>
       <c r="C17">
-        <v>10.29535101324365</v>
+        <v>7.591058321430627</v>
       </c>
       <c r="D17">
-        <v>6.401878262425812</v>
+        <v>8.5633799333303</v>
       </c>
       <c r="E17">
-        <v>12.51244846861513</v>
+        <v>8.888632585045157</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>34.36692767582377</v>
+        <v>27.50466861465405</v>
       </c>
       <c r="H17">
-        <v>15.64012319830991</v>
+        <v>9.734328922964135</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.451487570685382</v>
+        <v>13.60156516732367</v>
       </c>
       <c r="L17">
-        <v>9.638645742289684</v>
+        <v>7.435401996873299</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>24.57169217273414</v>
+        <v>16.66228811638666</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.24444407711929</v>
+        <v>17.14067265501707</v>
       </c>
       <c r="C18">
-        <v>10.29891023039499</v>
+        <v>7.602960475104277</v>
       </c>
       <c r="D18">
-        <v>6.369854322233357</v>
+        <v>8.45286256972325</v>
       </c>
       <c r="E18">
-        <v>12.51322772923622</v>
+        <v>8.850546318895681</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>34.37232999293192</v>
+        <v>27.38122048169537</v>
       </c>
       <c r="H18">
-        <v>15.65004684344079</v>
+        <v>9.740688099791701</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.399406408155892</v>
+        <v>13.45708942902534</v>
       </c>
       <c r="L18">
-        <v>9.632281285139033</v>
+        <v>7.379765105547604</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>24.58548770129541</v>
+        <v>16.64214878872023</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.22026196036693</v>
+        <v>17.06640805909893</v>
       </c>
       <c r="C19">
-        <v>10.30012723867576</v>
+        <v>7.607017077719444</v>
       </c>
       <c r="D19">
-        <v>6.359001736823974</v>
+        <v>8.415171130338459</v>
       </c>
       <c r="E19">
-        <v>12.51353193276451</v>
+        <v>8.837728469917863</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>34.37433340450682</v>
+        <v>27.33993478764225</v>
       </c>
       <c r="H19">
-        <v>15.65344908284062</v>
+        <v>9.742974346878693</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.381723012671431</v>
+        <v>13.40783823915022</v>
       </c>
       <c r="L19">
-        <v>9.630152578917221</v>
+        <v>7.360902395746474</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>24.59024631604028</v>
+        <v>16.63562621876707</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.32885982602963</v>
+        <v>17.3983489715337</v>
       </c>
       <c r="C20">
-        <v>10.2946979401333</v>
+        <v>7.588868218531954</v>
       </c>
       <c r="D20">
-        <v>6.40780020840907</v>
+        <v>8.583705196327694</v>
       </c>
       <c r="E20">
-        <v>12.51232341060604</v>
+        <v>8.895718220183921</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>34.36601064043695</v>
+        <v>27.52775964135293</v>
       </c>
       <c r="H20">
-        <v>15.63830663177591</v>
+        <v>9.733215732293152</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.461102646628261</v>
+        <v>13.62814557914256</v>
       </c>
       <c r="L20">
-        <v>9.639836070847316</v>
+        <v>7.445686907678371</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>24.56918059719255</v>
+        <v>16.66615714122332</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.68946753511942</v>
+        <v>18.4743658914829</v>
       </c>
       <c r="C21">
-        <v>10.27728341522763</v>
+        <v>7.529761968903966</v>
       </c>
       <c r="D21">
-        <v>6.570895725574923</v>
+        <v>9.131180500897042</v>
       </c>
       <c r="E21">
-        <v>12.51106726723746</v>
+        <v>9.095891070367916</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>34.35018723821455</v>
+        <v>28.19469422193133</v>
       </c>
       <c r="H21">
-        <v>15.5903714490925</v>
+        <v>9.710001869215917</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.72411187306832</v>
+        <v>14.34507375599233</v>
       </c>
       <c r="L21">
-        <v>9.674174910347702</v>
+        <v>7.728610662488779</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>24.50451226660422</v>
+        <v>16.78992554862601</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.92157032430205</v>
+        <v>19.14866194259116</v>
       </c>
       <c r="C22">
-        <v>10.2665162636509</v>
+        <v>7.492542046311665</v>
       </c>
       <c r="D22">
-        <v>6.676645146087877</v>
+        <v>9.475181424263988</v>
       </c>
       <c r="E22">
-        <v>12.51233196933639</v>
+        <v>9.230625730475117</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>34.34890892505648</v>
+        <v>28.65758582724987</v>
       </c>
       <c r="H22">
-        <v>15.56123681105617</v>
+        <v>9.702340993870715</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.892974394606169</v>
+        <v>14.79627538720491</v>
       </c>
       <c r="L22">
-        <v>9.69793934581257</v>
+        <v>7.911855743169999</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>24.46681236725093</v>
+        <v>16.88727968405204</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.79804432278857</v>
+        <v>18.79140503658396</v>
       </c>
       <c r="C23">
-        <v>10.27220683549483</v>
+        <v>7.512277050583051</v>
       </c>
       <c r="D23">
-        <v>6.620294391253536</v>
+        <v>9.292832575849506</v>
       </c>
       <c r="E23">
-        <v>12.511466453277</v>
+        <v>9.158361729777722</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>34.34876114462706</v>
+        <v>28.40804442247657</v>
       </c>
       <c r="H23">
-        <v>15.5765856886858</v>
+        <v>9.705717965908379</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.8031434391415</v>
+        <v>14.55704738044555</v>
       </c>
       <c r="L23">
-        <v>9.685136325510525</v>
+        <v>7.814219216408047</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>24.48651516950767</v>
+        <v>16.83377082666976</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.32291115537213</v>
+        <v>17.38026885015134</v>
       </c>
       <c r="C24">
-        <v>10.29499297362163</v>
+        <v>7.589857861402334</v>
       </c>
       <c r="D24">
-        <v>6.405123139498799</v>
+        <v>8.57452121726025</v>
       </c>
       <c r="E24">
-        <v>12.5123792169384</v>
+        <v>8.89251345935752</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>34.36642206319434</v>
+        <v>27.5173110545324</v>
       </c>
       <c r="H24">
-        <v>15.63912712119905</v>
+        <v>9.733716549763344</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.456756670638157</v>
+        <v>13.61613484052141</v>
       </c>
       <c r="L24">
-        <v>9.639297459470152</v>
+        <v>7.441037654070732</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>24.57031447036749</v>
+        <v>16.66440254956835</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.79768546617054</v>
+        <v>15.73183180877844</v>
       </c>
       <c r="C25">
-        <v>10.32222345838668</v>
+        <v>7.679502790165634</v>
       </c>
       <c r="D25">
-        <v>6.170739254369307</v>
+        <v>7.73922645268675</v>
       </c>
       <c r="E25">
-        <v>12.52234439457123</v>
+        <v>8.622966449064117</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>34.42426880080818</v>
+        <v>26.67048570563279</v>
       </c>
       <c r="H25">
-        <v>15.7159969819904</v>
+        <v>9.793765475408623</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.071950965901671</v>
+        <v>12.52685534650288</v>
       </c>
       <c r="L25">
-        <v>9.595669314307912</v>
+        <v>7.032846293382877</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>24.68022974404089</v>
+        <v>16.54800178845485</v>
       </c>
     </row>
   </sheetData>
